--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H2">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I2">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J2">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N2">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q2">
-        <v>1.01177282856</v>
+        <v>1.2105162821605</v>
       </c>
       <c r="R2">
-        <v>4.04709131424</v>
+        <v>4.842065128642</v>
       </c>
       <c r="S2">
-        <v>0.001651093644220178</v>
+        <v>0.001858451554503045</v>
       </c>
       <c r="T2">
-        <v>0.0008161119788285583</v>
+        <v>0.0009271185771672906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H3">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I3">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J3">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q3">
-        <v>16.36802368834</v>
+        <v>9.620528759952832</v>
       </c>
       <c r="R3">
-        <v>98.20814213004</v>
+        <v>57.723172559717</v>
       </c>
       <c r="S3">
-        <v>0.02671067962827868</v>
+        <v>0.01476996789928763</v>
       </c>
       <c r="T3">
-        <v>0.01980406049372136</v>
+        <v>0.01105235559443124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H4">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I4">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J4">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N4">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q4">
-        <v>0.6337007180000001</v>
+        <v>0.6735993876184999</v>
       </c>
       <c r="R4">
-        <v>3.802204308</v>
+        <v>4.041596325711</v>
       </c>
       <c r="S4">
-        <v>0.001034124655548126</v>
+        <v>0.001034147039144014</v>
       </c>
       <c r="T4">
-        <v>0.0007667295449435797</v>
+        <v>0.0007738514322769181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H5">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I5">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J5">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N5">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q5">
-        <v>4.55541205845</v>
+        <v>2.94921333952875</v>
       </c>
       <c r="R5">
-        <v>18.2216482338</v>
+        <v>11.796853358115</v>
       </c>
       <c r="S5">
-        <v>0.007433893937649583</v>
+        <v>0.004527795450736127</v>
       </c>
       <c r="T5">
-        <v>0.003674467473782962</v>
+        <v>0.002258763897191559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H6">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I6">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J6">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N6">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q6">
-        <v>0.8540334452</v>
+        <v>0.1696054848191667</v>
       </c>
       <c r="R6">
-        <v>5.1242006712</v>
+        <v>1.017632908915</v>
       </c>
       <c r="S6">
-        <v>0.001393681618558668</v>
+        <v>0.0002603877218006974</v>
       </c>
       <c r="T6">
-        <v>0.001033315343039888</v>
+        <v>0.0001948479315181143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H7">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I7">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J7">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N7">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q7">
-        <v>0.44409577892</v>
+        <v>0.5843478235326666</v>
       </c>
       <c r="R7">
-        <v>2.66457467352</v>
+        <v>3.506086941196</v>
       </c>
       <c r="S7">
-        <v>0.0007247118101040591</v>
+        <v>0.0008971231011255138</v>
       </c>
       <c r="T7">
-        <v>0.0005373220272770721</v>
+        <v>0.0006713165250749325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>95.29137</v>
       </c>
       <c r="I8">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J8">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N8">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O8">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P8">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q8">
-        <v>23.91521160132</v>
+        <v>48.68096220747</v>
       </c>
       <c r="R8">
-        <v>143.49126960792</v>
+        <v>292.08577324482</v>
       </c>
       <c r="S8">
-        <v>0.03902679807217072</v>
+        <v>0.07473770590487705</v>
       </c>
       <c r="T8">
-        <v>0.02893558234584405</v>
+        <v>0.05592616772122871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>95.29137</v>
       </c>
       <c r="I9">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J9">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.540661</v>
       </c>
       <c r="O9">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P9">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q9">
         <v>386.88996082173</v>
@@ -1013,10 +1013,10 @@
         <v>3482.00964739557</v>
       </c>
       <c r="S9">
-        <v>0.6313586778511424</v>
+        <v>0.5939748681673935</v>
       </c>
       <c r="T9">
-        <v>0.7021610245455435</v>
+        <v>0.6667064040259093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>95.29137</v>
       </c>
       <c r="I10">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J10">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N10">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O10">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P10">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q10">
-        <v>14.978744571</v>
+        <v>27.08882715159</v>
       </c>
       <c r="R10">
-        <v>134.808701139</v>
+        <v>243.79944436431</v>
       </c>
       <c r="S10">
-        <v>0.02444354034963985</v>
+        <v>0.0415882658262847</v>
       </c>
       <c r="T10">
-        <v>0.02718470805507816</v>
+        <v>0.04668070089272167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>95.29137</v>
       </c>
       <c r="I11">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J11">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N11">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O11">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P11">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q11">
-        <v>107.675992311525</v>
+        <v>118.602736071525</v>
       </c>
       <c r="R11">
-        <v>646.05595386915</v>
+        <v>711.61641642915</v>
       </c>
       <c r="S11">
-        <v>0.1757144899746799</v>
+        <v>0.1820854807727529</v>
       </c>
       <c r="T11">
-        <v>0.1302797396962456</v>
+        <v>0.1362544249118172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>95.29137</v>
       </c>
       <c r="I12">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J12">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N12">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O12">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P12">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q12">
-        <v>20.1867355794</v>
+        <v>6.82069156635</v>
       </c>
       <c r="R12">
-        <v>181.6806202146</v>
+        <v>61.38622409715</v>
       </c>
       <c r="S12">
-        <v>0.03294236598559153</v>
+        <v>0.01047150297032377</v>
       </c>
       <c r="T12">
-        <v>0.03663661602011092</v>
+        <v>0.01175372640197917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>95.29137</v>
       </c>
       <c r="I13">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J13">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N13">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O13">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P13">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q13">
-        <v>10.49706438474</v>
+        <v>23.49957182124</v>
       </c>
       <c r="R13">
-        <v>94.47357946266</v>
+        <v>211.49614639116</v>
       </c>
       <c r="S13">
-        <v>0.01712996811080741</v>
+        <v>0.03607784250815136</v>
       </c>
       <c r="T13">
-        <v>0.01905097115328302</v>
+        <v>0.04049553261038646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H14">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I14">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J14">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N14">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O14">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P14">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q14">
-        <v>0.9387268237619999</v>
+        <v>1.855636017726</v>
       </c>
       <c r="R14">
-        <v>3.754907295048</v>
+        <v>7.422544070904</v>
       </c>
       <c r="S14">
-        <v>0.001531891199903398</v>
+        <v>0.002848875056500463</v>
       </c>
       <c r="T14">
-        <v>0.0007571919151161722</v>
+        <v>0.001421207339255271</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H15">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I15">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J15">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.540661</v>
       </c>
       <c r="O15">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P15">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q15">
-        <v>15.1863169819305</v>
+        <v>14.747591535634</v>
       </c>
       <c r="R15">
-        <v>91.11790189158299</v>
+        <v>88.48554921380401</v>
       </c>
       <c r="S15">
-        <v>0.02478227398502575</v>
+        <v>0.0226413182693077</v>
       </c>
       <c r="T15">
-        <v>0.01837428549185347</v>
+        <v>0.01694248100912598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H16">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I16">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J16">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N16">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O16">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P16">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q16">
-        <v>0.58795002735</v>
+        <v>1.032580316022</v>
       </c>
       <c r="R16">
-        <v>3.5277001641</v>
+        <v>6.195481896132</v>
       </c>
       <c r="S16">
-        <v>0.0009594649370632877</v>
+        <v>0.001585274416991192</v>
       </c>
       <c r="T16">
-        <v>0.000711374698047337</v>
+        <v>0.001186259624314171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H17">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I17">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J17">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N17">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O17">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P17">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q17">
-        <v>4.226529287846249</v>
+        <v>4.520935882845</v>
       </c>
       <c r="R17">
-        <v>16.906117151385</v>
+        <v>18.08374353138</v>
       </c>
       <c r="S17">
-        <v>0.006897196136612348</v>
+        <v>0.006940790837018985</v>
       </c>
       <c r="T17">
-        <v>0.003409185425141617</v>
+        <v>0.003462525622279957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H18">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I18">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J18">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N18">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O18">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P18">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q18">
-        <v>0.79237560129</v>
+        <v>0.25999323683</v>
       </c>
       <c r="R18">
-        <v>4.754253607739999</v>
+        <v>1.55995942098</v>
       </c>
       <c r="S18">
-        <v>0.001293063306500405</v>
+        <v>0.0003991559983684113</v>
       </c>
       <c r="T18">
-        <v>0.0009587140537238225</v>
+        <v>0.0002986881259119508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H19">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I19">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J19">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N19">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O19">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P19">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q19">
-        <v>0.412033816509</v>
+        <v>0.895763967992</v>
       </c>
       <c r="R19">
-        <v>2.472202899054</v>
+        <v>5.374583807952</v>
       </c>
       <c r="S19">
-        <v>0.0006723904778210296</v>
+        <v>0.001375226391677584</v>
       </c>
       <c r="T19">
-        <v>0.0004985294976947019</v>
+        <v>0.0010290808488758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H20">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I20">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J20">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N20">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O20">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P20">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q20">
-        <v>0.046331699596</v>
+        <v>0.09984792308566669</v>
       </c>
       <c r="R20">
-        <v>0.277990197576</v>
+        <v>0.5990875385140001</v>
       </c>
       <c r="S20">
-        <v>7.560785639771482E-05</v>
+        <v>0.0001532920544788297</v>
       </c>
       <c r="T20">
-        <v>5.605782341515938E-05</v>
+        <v>0.0001147083262098806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H21">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I21">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J21">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.540661</v>
       </c>
       <c r="O21">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P21">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q21">
-        <v>0.7495342186523333</v>
+        <v>0.7935372946432223</v>
       </c>
       <c r="R21">
-        <v>6.745807967871</v>
+        <v>7.141835651789</v>
       </c>
       <c r="S21">
-        <v>0.001223151234752709</v>
+        <v>0.001218282348217356</v>
       </c>
       <c r="T21">
-        <v>0.001360318871503026</v>
+        <v>0.001367459613189106</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H22">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I22">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J22">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N22">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O22">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P22">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q22">
-        <v>0.02901879796666667</v>
+        <v>0.05556100387633334</v>
       </c>
       <c r="R22">
-        <v>0.2611691817</v>
+        <v>0.5000490348869999</v>
       </c>
       <c r="S22">
-        <v>4.735524767339753E-05</v>
+        <v>8.530032643545286E-05</v>
       </c>
       <c r="T22">
-        <v>5.266579899896533E-05</v>
+        <v>9.574525278397779E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H23">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I23">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J23">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N23">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O23">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P23">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q23">
-        <v>0.2086041224575</v>
+        <v>0.2432621774925</v>
       </c>
       <c r="R23">
-        <v>1.251624734745</v>
+        <v>1.459573064955</v>
       </c>
       <c r="S23">
-        <v>0.0003404172666288211</v>
+        <v>0.0003734695506167429</v>
       </c>
       <c r="T23">
-        <v>0.0002523950807409275</v>
+        <v>0.0002794669768583425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H24">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I24">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J24">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N24">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O24">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P24">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q24">
-        <v>0.03910840448666667</v>
+        <v>0.01398969650611111</v>
       </c>
       <c r="R24">
-        <v>0.35197564038</v>
+        <v>0.125907268555</v>
       </c>
       <c r="S24">
-        <v>6.382029271870096E-05</v>
+        <v>2.147775589800851E-05</v>
       </c>
       <c r="T24">
-        <v>7.097728073474752E-05</v>
+        <v>2.41076822753249E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H25">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I25">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J25">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N25">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O25">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P25">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q25">
-        <v>0.02033629648866667</v>
+        <v>0.04819920012577778</v>
       </c>
       <c r="R25">
-        <v>0.183026668398</v>
+        <v>0.433792801132</v>
       </c>
       <c r="S25">
-        <v>3.318643170839361E-05</v>
+        <v>7.399807810902158E-05</v>
       </c>
       <c r="T25">
-        <v>3.690805196292939E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.260443</v>
-      </c>
-      <c r="I26">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J26">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.752908</v>
-      </c>
-      <c r="N26">
-        <v>1.505816</v>
-      </c>
-      <c r="O26">
-        <v>0.04239205579776523</v>
-      </c>
-      <c r="P26">
-        <v>0.03064402855818915</v>
-      </c>
-      <c r="Q26">
-        <v>0.06536320608133334</v>
-      </c>
-      <c r="R26">
-        <v>0.392179236488</v>
-      </c>
-      <c r="S26">
-        <v>0.0001066650250732082</v>
-      </c>
-      <c r="T26">
-        <v>7.908449498520864E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.260443</v>
-      </c>
-      <c r="I27">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J27">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>12.18022033333333</v>
-      </c>
-      <c r="N27">
-        <v>36.540661</v>
-      </c>
-      <c r="O27">
-        <v>0.6858003633906682</v>
-      </c>
-      <c r="P27">
-        <v>0.743618781590253</v>
-      </c>
-      <c r="Q27">
-        <v>1.057417708091444</v>
-      </c>
-      <c r="R27">
-        <v>9.516759372823</v>
-      </c>
-      <c r="S27">
-        <v>0.001725580691468546</v>
-      </c>
-      <c r="T27">
-        <v>0.001919092187631629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.260443</v>
-      </c>
-      <c r="I28">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J28">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.4715666666666667</v>
-      </c>
-      <c r="N28">
-        <v>1.4147</v>
-      </c>
-      <c r="O28">
-        <v>0.02655129238326527</v>
-      </c>
-      <c r="P28">
-        <v>0.02878977723790303</v>
-      </c>
-      <c r="Q28">
-        <v>0.04093874578888889</v>
-      </c>
-      <c r="R28">
-        <v>0.3684487121</v>
-      </c>
-      <c r="S28">
-        <v>6.680719334060631E-05</v>
-      </c>
-      <c r="T28">
-        <v>7.42991408349856E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.260443</v>
-      </c>
-      <c r="I29">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J29">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>3.3898975</v>
-      </c>
-      <c r="N29">
-        <v>6.779795</v>
-      </c>
-      <c r="O29">
-        <v>0.1908662465649254</v>
-      </c>
-      <c r="P29">
-        <v>0.1379718581809916</v>
-      </c>
-      <c r="Q29">
-        <v>0.2942916915308333</v>
-      </c>
-      <c r="R29">
-        <v>1.765750149185</v>
-      </c>
-      <c r="S29">
-        <v>0.0004802492493546433</v>
-      </c>
-      <c r="T29">
-        <v>0.0003560705050804631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.260443</v>
-      </c>
-      <c r="I30">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J30">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.6355266666666667</v>
-      </c>
-      <c r="N30">
-        <v>1.90658</v>
-      </c>
-      <c r="O30">
-        <v>0.03578296672940263</v>
-      </c>
-      <c r="P30">
-        <v>0.03879975506202103</v>
-      </c>
-      <c r="Q30">
-        <v>0.05517282388222222</v>
-      </c>
-      <c r="R30">
-        <v>0.4965554149399999</v>
-      </c>
-      <c r="S30">
-        <v>9.003552603331672E-05</v>
-      </c>
-      <c r="T30">
-        <v>0.0001001323644116539</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.260443</v>
-      </c>
-      <c r="I31">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J31">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.3304726666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.991418</v>
-      </c>
-      <c r="O31">
-        <v>0.01860707513397334</v>
-      </c>
-      <c r="P31">
-        <v>0.02017579937064208</v>
-      </c>
-      <c r="Q31">
-        <v>0.02868976424155556</v>
-      </c>
-      <c r="R31">
-        <v>0.258207878174</v>
-      </c>
-      <c r="S31">
-        <v>4.681830353245015E-05</v>
-      </c>
-      <c r="T31">
-        <v>5.206864042435835E-05</v>
+        <v>8.305905721753632E-05</v>
       </c>
     </row>
   </sheetData>
